--- a/Consulta_Executivos.xlsx
+++ b/Consulta_Executivos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="EXECUTIVOS" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="6" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="77">
   <si>
     <t>PV/PB</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>300  vidas Até 500 vidas</t>
+  </si>
+  <si>
+    <t>Nacional</t>
   </si>
 </sst>
 </file>
@@ -647,34 +650,32 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="João Pedro Santos da Silva" refreshedDate="46052.659171064814" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="29">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="João Pedro Santos da Silva" refreshedDate="46062.666019328703" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="29">
   <cacheSource type="worksheet">
     <worksheetSource ref="B2:H31" sheet="EXECUTIVOS"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="PV/PB" numFmtId="0">
-      <sharedItems count="1">
-        <s v="SISTEMAS PRIVADO"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="GERENTE DE VENDAS" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="REGIONAL" numFmtId="0">
-      <sharedItems count="3">
+      <sharedItems count="4">
         <s v="Centro Oeste"/>
         <s v="Sul"/>
         <s v="Sudeste"/>
+        <s v="Nacional"/>
       </sharedItems>
     </cacheField>
     <cacheField name="EXECUTIVO DE CONTA " numFmtId="0">
-      <sharedItems count="19">
+      <sharedItems count="20">
         <s v="Aumento de quadro"/>
         <s v="Julianna Cristina Costa Silva"/>
         <s v="Juliana Vaz Garcia"/>
         <s v="Daniela Priebe"/>
-        <s v="TBD JUNDIAÍ"/>
-        <s v="TBD MURILO"/>
+        <s v="TBD "/>
         <s v="César Augusto Pereira Pinto "/>
         <s v="Elivelton Morais"/>
         <s v="Mauricio Goncalves"/>
@@ -688,6 +689,8 @@
         <s v="Mauricio Dyszy Plaini"/>
         <s v="Gilson Rogério Manke"/>
         <s v="TBD"/>
+        <s v="TBD MURILO" u="1"/>
+        <s v="TBD JUNDIAÍ" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="PERFIL" numFmtId="0">
@@ -706,15 +709,16 @@
       </sharedItems>
     </cacheField>
     <cacheField name="ICP" numFmtId="0">
-      <sharedItems count="8">
+      <sharedItems count="9">
         <s v="Faturamento anual entre R$300M e R$1BI"/>
         <s v="Até 4.000 vidas"/>
-        <s v="Até 500 vidas"/>
+        <s v="300  vidas Até 500 vidas"/>
         <s v="Faturamento anual entre R$100M e R$300M · ~1.000 processos ativos · até 5 advogados na área"/>
         <s v="Faturamento anual a partir de R$300M"/>
         <s v="Acima de 4.000 vidas"/>
         <s v="Faturamento anual a partir de R$1BI"/>
         <s v="DEFINIR"/>
+        <s v="Até 500 vidas" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -729,7 +733,7 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="29">
   <r>
-    <x v="0"/>
+    <s v="SISTEMAS PRIVADO"/>
     <s v="CARLOS"/>
     <x v="0"/>
     <x v="0"/>
@@ -738,7 +742,7 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="SISTEMAS PRIVADO"/>
     <s v="CARLOS"/>
     <x v="0"/>
     <x v="1"/>
@@ -747,7 +751,7 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="SISTEMAS PRIVADO"/>
     <s v="CARLOS"/>
     <x v="0"/>
     <x v="2"/>
@@ -756,7 +760,7 @@
     <x v="2"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="SISTEMAS PRIVADO"/>
     <s v="JÚLIO"/>
     <x v="1"/>
     <x v="3"/>
@@ -765,7 +769,7 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="SISTEMAS PRIVADO"/>
     <s v="CARLOS"/>
     <x v="0"/>
     <x v="0"/>
@@ -774,7 +778,7 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="SISTEMAS PRIVADO"/>
     <s v="JÚLIO"/>
     <x v="1"/>
     <x v="0"/>
@@ -783,7 +787,7 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="SISTEMAS PRIVADO"/>
     <s v="EDUARDO"/>
     <x v="2"/>
     <x v="4"/>
@@ -792,7 +796,7 @@
     <x v="2"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="SISTEMAS PRIVADO"/>
     <s v="JÚLIO"/>
     <x v="1"/>
     <x v="0"/>
@@ -801,25 +805,25 @@
     <x v="3"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="SISTEMAS PRIVADO"/>
     <s v="EDUARDO"/>
     <x v="2"/>
-    <x v="5"/>
+    <x v="4"/>
     <s v="Executivo C. Pleno "/>
     <x v="4"/>
     <x v="4"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="SISTEMAS PRIVADO"/>
     <s v="CARLOS"/>
     <x v="0"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="Executivo C. Pleno"/>
     <x v="4"/>
     <x v="4"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="SISTEMAS PRIVADO"/>
     <s v="JÚLIO"/>
     <x v="1"/>
     <x v="0"/>
@@ -828,115 +832,115 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="SISTEMAS PRIVADO"/>
+    <s v="JÚLIO"/>
+    <x v="3"/>
+    <x v="6"/>
+    <s v="Executivo C. Pró"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="SISTEMAS PRIVADO"/>
     <s v="JÚLIO"/>
     <x v="1"/>
     <x v="7"/>
-    <s v="Executivo C. Pró"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="JÚLIO"/>
-    <x v="1"/>
+    <s v="Executivo C. Pleno"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="SISTEMAS PRIVADO"/>
+    <s v="EDUARDO"/>
+    <x v="2"/>
     <x v="8"/>
     <s v="Executivo C. Pleno"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="SISTEMAS PRIVADO"/>
     <s v="EDUARDO"/>
     <x v="2"/>
     <x v="9"/>
-    <s v="Executivo C. Pleno"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="EDUARDO"/>
-    <x v="2"/>
-    <x v="10"/>
     <s v="Executivo C. Pleno "/>
     <x v="3"/>
     <x v="3"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="SISTEMAS PRIVADO"/>
     <s v="EDUARDO"/>
+    <x v="3"/>
+    <x v="10"/>
+    <s v="Executivo C. Pró"/>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="SISTEMAS PRIVADO"/>
+    <s v="CARLOS"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Executivo C. Sênior"/>
     <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="SISTEMAS PRIVADO"/>
+    <s v="CARLOS"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Executivo C. Sênior"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="SISTEMAS PRIVADO"/>
+    <s v="EDUARDO"/>
+    <x v="3"/>
     <x v="11"/>
     <s v="Executivo C. Pró"/>
     <x v="6"/>
     <x v="6"/>
   </r>
   <r>
-    <x v="0"/>
-    <s v="CARLOS"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Executivo C. Sênior"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="CARLOS"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Executivo C. Sênior"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <s v="SISTEMAS PRIVADO"/>
     <s v="EDUARDO"/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="12"/>
     <s v="Executivo C. Pró"/>
     <x v="6"/>
     <x v="6"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="SISTEMAS PRIVADO"/>
     <s v="EDUARDO"/>
     <x v="2"/>
     <x v="13"/>
-    <s v="Executivo C. Pró"/>
-    <x v="6"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <s v="Executivo C. Sênior"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="SISTEMAS PRIVADO"/>
     <s v="EDUARDO"/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="14"/>
-    <s v="Executivo C. Sênior"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <s v="Executivo C. Pró "/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="SISTEMAS PRIVADO"/>
     <s v="EDUARDO"/>
     <x v="2"/>
     <x v="15"/>
-    <s v="Executivo C. Pró "/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="EDUARDO"/>
-    <x v="2"/>
-    <x v="16"/>
     <s v="Executivo C. Sênior"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="SISTEMAS PRIVADO"/>
     <s v="JÚLIO"/>
     <x v="1"/>
     <x v="0"/>
@@ -945,7 +949,7 @@
     <x v="2"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="SISTEMAS PRIVADO"/>
     <s v="JÚLIO"/>
     <x v="1"/>
     <x v="0"/>
@@ -954,37 +958,37 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="SISTEMAS PRIVADO"/>
+    <s v="JÚLIO"/>
+    <x v="1"/>
+    <x v="16"/>
+    <s v="Executivo C. Pró"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="SISTEMAS PRIVADO"/>
+    <s v="CARLOS"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Executivo C. Sênior"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="SISTEMAS PRIVADO"/>
+    <s v="EDUARDO"/>
+    <x v="2"/>
+    <x v="13"/>
+    <s v="Executivo C. Sênior"/>
+    <x v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="SISTEMAS PRIVADO"/>
     <s v="JÚLIO"/>
     <x v="1"/>
     <x v="17"/>
-    <s v="Executivo C. Pró"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="CARLOS"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Executivo C. Sênior"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="EDUARDO"/>
-    <x v="2"/>
-    <x v="14"/>
-    <s v="Executivo C. Sênior"/>
-    <x v="7"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="JÚLIO"/>
-    <x v="1"/>
-    <x v="18"/>
     <s v="Executivo C. Sênior"/>
     <x v="4"/>
     <x v="4"/>
@@ -993,45 +997,42 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B6:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
-    <pivotField showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
+      <items count="5">
         <item x="0"/>
         <item x="2"/>
         <item x="1"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="20">
+      <items count="21">
         <item sd="0" x="0"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="14"/>
         <item sd="0" x="6"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="11"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="1"/>
         <item sd="0" x="15"/>
         <item sd="0" x="7"/>
+        <item sd="0" x="11"/>
         <item sd="0" x="17"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="16"/>
+        <item sd="0" m="1" x="19"/>
+        <item sd="0" m="1" x="18"/>
         <item sd="0" x="8"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="13"/>
+        <item x="12"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1050,15 +1051,16 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="9">
+      <items count="10">
         <item x="5"/>
         <item x="1"/>
-        <item x="2"/>
+        <item m="1" x="8"/>
         <item x="7"/>
         <item x="6"/>
         <item x="4"/>
         <item x="3"/>
         <item x="0"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1390,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1700,7 +1702,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
@@ -1796,7 +1798,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>32</v>
@@ -1868,7 +1870,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>34</v>
@@ -1892,7 +1894,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>35</v>
@@ -1940,7 +1942,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>37</v>
@@ -2134,7 +2136,7 @@
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2286,8 +2288,8 @@
   </sheetPr>
   <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
